--- a/hiqu/HR/Performance Evaluation/December 2024/Dev/Imran Haq.xlsx
+++ b/hiqu/HR/Performance Evaluation/December 2024/Dev/Imran Haq.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\December 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DA03DE-B448-4360-940C-19ECAB419727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE5982B-847C-425C-A995-3817C6F290A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
     <sheet name="Quarterly Evaluation" sheetId="3" r:id="rId2"/>
     <sheet name="Consolidated" sheetId="5" r:id="rId3"/>
-    <sheet name="November 2024" sheetId="6" r:id="rId4"/>
-    <sheet name="September 24" sheetId="1" r:id="rId5"/>
-    <sheet name="October 2024" sheetId="4" r:id="rId6"/>
+    <sheet name="December 2024" sheetId="7" r:id="rId4"/>
+    <sheet name="November 2024" sheetId="6" r:id="rId5"/>
+    <sheet name="September 24" sheetId="1" r:id="rId6"/>
+    <sheet name="October 2024" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="129">
   <si>
     <t>Employee Name</t>
   </si>
@@ -76,9 +77,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Post-Prod</t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
@@ -97,9 +95,6 @@
     <t>Bug Fixing Time</t>
   </si>
   <si>
-    <t>Number of Bugs</t>
-  </si>
-  <si>
     <t>Diff %</t>
   </si>
   <si>
@@ -127,15 +122,6 @@
     <t>Days Worked under 8 hours</t>
   </si>
   <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
     <t>Employee Working Days</t>
   </si>
   <si>
@@ -410,6 +396,39 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>Period: December 2024</t>
+  </si>
+  <si>
+    <t>Integration Testing</t>
+  </si>
+  <si>
+    <t>Pull Client &amp; Sites, Service types as Media Types from Nexelus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXELUS 2024.1 SP2              </t>
+  </si>
+  <si>
+    <t>Billing by Media Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXELUS SUPPORT                 </t>
+  </si>
+  <si>
+    <t>Maintenance Activity</t>
+  </si>
+  <si>
+    <t>Support Tickets - HY</t>
+  </si>
+  <si>
+    <t>Tasks by US Team - TheShipyard</t>
+  </si>
+  <si>
+    <t>QA Environment Upgrade</t>
+  </si>
+  <si>
+    <t>Tasks by US Team - TheShipYard</t>
   </si>
 </sst>
 </file>
@@ -754,7 +773,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -791,9 +810,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -952,11 +968,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2992,7 +3005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -3004,30 +3017,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="60"/>
+      <c r="B2" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="59"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
+      <c r="C5" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -3035,11 +3048,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="C6" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -3047,11 +3060,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
+      <c r="C7" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -3059,11 +3072,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="C8" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -3071,84 +3084,84 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
+      <c r="C9" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="58">
+        <v>54</v>
+      </c>
+      <c r="C10" s="57">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.8</v>
-      </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+        <v>1.9561643835616438</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="C11" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="I13" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="J13" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="K13" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="L13" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="M13" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="N13" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
-        <v>25</v>
+      <c r="B14" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="2">
         <v>21</v>
@@ -3174,8 +3187,8 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
-        <v>31</v>
+      <c r="B15" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="2">
         <v>21</v>
@@ -3201,8 +3214,8 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
-        <v>22</v>
+      <c r="B16" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -3228,8 +3241,8 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
-        <v>23</v>
+      <c r="B17" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
@@ -3255,8 +3268,8 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
-        <v>27</v>
+      <c r="B18" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -3282,8 +3295,8 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
-        <v>24</v>
+      <c r="B19" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -3309,8 +3322,8 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
-        <v>26</v>
+      <c r="B20" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -3336,8 +3349,8 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>32</v>
+      <c r="B21" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -3395,326 +3408,326 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
+      <c r="B3" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
-      <c r="C4" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="C11" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C12" s="33">
         <v>0.8</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C17" s="33">
         <v>0.8</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C18" s="33">
         <v>0.8</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C19" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="33">
         <v>0.8</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="34">
-        <v>0.75</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="33">
+        <v>0</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="34">
-        <v>0.75</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="34">
-        <v>0.7</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+      <c r="C25" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="C26" s="33">
+        <v>0</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="34">
-        <v>0.75</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="C27" s="33">
+        <v>0</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="34">
-        <v>0.75</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+      <c r="C28" s="33">
+        <v>0</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="33">
+        <v>0</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="33">
+        <v>0</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="34">
-        <v>0.7</v>
-      </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="65"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="34">
-        <v>0</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="34">
-        <v>0</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="34">
-        <v>0</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="34">
-        <v>0</v>
-      </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="34">
-        <v>0</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="34">
-        <v>0</v>
-      </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="34">
-        <v>0</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
+      <c r="C31" s="33">
+        <v>0</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4083,10 +4096,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6677BB-E10D-483E-845F-0AA84C11103D}">
-  <dimension ref="B2:Z45"/>
+  <dimension ref="B2:T55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4108,204 +4124,160 @@
     <col min="18" max="18" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="1.7109375" style="6" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="2.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" style="6" customWidth="1"/>
-    <col min="23" max="25" width="9.140625" style="6"/>
-    <col min="26" max="26" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-    </row>
-    <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+    </row>
+    <row r="3" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
+      <c r="D6" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
       <c r="H6" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="P6" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
+        <v>111</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="P6" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
       <c r="T6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="14"/>
-      <c r="W6" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="76"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="31" t="s">
+      <c r="D7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="P7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
@@ -4314,71 +4286,52 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="48"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="47"/>
       <c r="L8" s="5"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="55"/>
+      <c r="N8" s="54"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="55"/>
+      <c r="R8" s="54"/>
       <c r="T8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="8"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32">
+        <v>114</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31">
         <v>6</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="48"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="47"/>
       <c r="L9" s="5"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="56">
+      <c r="N9" s="55">
         <f>IF(L9&gt;0,L9-M9,0)</f>
         <v>0</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="56">
+      <c r="R9" s="55">
         <f>IF(P9&gt;0,P9-Q9,0)</f>
         <v>0</v>
       </c>
       <c r="S9" s="7"/>
-      <c r="T9" s="36">
+      <c r="T9" s="35">
         <f>D9+E9+F9+G9+H9+I9+J9+M9+Q9</f>
         <v>6</v>
       </c>
-      <c r="V9" s="16"/>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="8">
-        <f>SUM(W9:Y9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -4387,37 +4340,31 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="48"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="47"/>
       <c r="L10" s="5"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="56">
-        <f t="shared" ref="N10:N39" si="0">IF(L10&gt;0,L10-M10,0)</f>
+      <c r="N10" s="55">
+        <f t="shared" ref="N10:N49" si="0">IF(L10&gt;0,L10-M10,0)</f>
         <v>0</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="56">
-        <f t="shared" ref="R10:R39" si="1">IF(P10&gt;0,P10-Q10,0)</f>
+      <c r="R10" s="55">
+        <f t="shared" ref="R10:R49" si="1">IF(P10&gt;0,P10-Q10,0)</f>
         <v>0</v>
       </c>
       <c r="S10" s="2"/>
-      <c r="T10" s="36">
-        <f t="shared" ref="T10:T39" si="2">D10+E10+F10+G10+H10+I10+J10+M10+Q10</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="8"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="T10" s="35">
+        <f t="shared" ref="T10:T49" si="2">D10+E10+F10+G10+H10+I10+J10+M10+Q10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -4425,38 +4372,32 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="48"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="47"/>
       <c r="L11" s="5"/>
       <c r="M11" s="2">
         <v>7</v>
       </c>
-      <c r="N11" s="56">
+      <c r="N11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="56">
+      <c r="R11" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S11" s="2"/>
-      <c r="T11" s="36">
+      <c r="T11" s="35">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="18"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
@@ -4465,37 +4406,31 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="48"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="47"/>
       <c r="L12" s="5"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="56">
+      <c r="N12" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="56">
+      <c r="R12" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S12" s="2"/>
-      <c r="T12" s="36">
+      <c r="T12" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -4505,11 +4440,11 @@
         <v>16</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="48"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="47"/>
       <c r="L13" s="5"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="56">
+      <c r="N13" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4518,66 +4453,48 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2"/>
-      <c r="R13" s="56">
+      <c r="R13" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S13" s="2"/>
-      <c r="T13" s="36">
+      <c r="T13" s="35">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="8"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="35"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="48"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="5"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N14" s="55"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2">
+        <v>85</v>
+      </c>
+      <c r="R14" s="55"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="36">
+      <c r="T14" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="18"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -4585,405 +4502,313 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="48"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="47"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M15" s="2">
+        <v>4</v>
+      </c>
+      <c r="N15" s="55"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2">
-        <v>10</v>
-      </c>
-      <c r="R15" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="55"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="36">
+      <c r="T15" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="18"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="34"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="48"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="2">
-        <v>15</v>
-      </c>
-      <c r="N16" s="56">
+      <c r="M16" s="2"/>
+      <c r="N16" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
       <c r="Q16" s="2"/>
-      <c r="R16" s="56">
+      <c r="R16" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S16" s="2"/>
-      <c r="T16" s="36">
+      <c r="T16" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="8"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2">
-        <v>11</v>
-      </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="48"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="5"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="56">
+      <c r="N17" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="56">
+      <c r="Q17" s="2">
+        <v>10</v>
+      </c>
+      <c r="R17" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S17" s="2"/>
-      <c r="T17" s="36">
+      <c r="T17" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="8"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
       <c r="C18" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="48"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="47"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="56">
+      <c r="M18" s="2">
+        <v>15</v>
+      </c>
+      <c r="N18" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="56">
+      <c r="R18" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S18" s="2"/>
-      <c r="T18" s="36">
+      <c r="T18" s="35">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U18" s="2"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="8"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="C19" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="48"/>
+      <c r="I19" s="2">
+        <v>11</v>
+      </c>
+      <c r="J19" s="44"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="5"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="56">
+      <c r="N19" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="56">
+      <c r="R19" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S19" s="2"/>
-      <c r="T19" s="36">
+      <c r="T19" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="2"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="8"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="48"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="5"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="56">
+      <c r="N20" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2">
-        <v>7</v>
-      </c>
-      <c r="R20" s="56">
+      <c r="Q20" s="2"/>
+      <c r="R20" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S20" s="2"/>
-      <c r="T20" s="36">
+      <c r="T20" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="8"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2">
-        <v>132</v>
-      </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="48"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="2">
-        <v>2</v>
-      </c>
-      <c r="N21" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="55"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="R21" s="55"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="36">
+      <c r="T21" s="35">
         <f t="shared" si="2"/>
-        <v>135</v>
-      </c>
-      <c r="U21" s="2"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="18"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="29"/>
       <c r="C22" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="48"/>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="44"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="5"/>
       <c r="M22" s="2">
-        <v>3</v>
-      </c>
-      <c r="N22" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="55"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="R22" s="55"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="36">
+      <c r="T22" s="35">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2">
+        <v>3</v>
+      </c>
+      <c r="R23" s="55"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="35">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="8"/>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V23" s="8"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="8"/>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32">
-        <v>1</v>
-      </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="5"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="44"/>
-      <c r="K24" s="48"/>
+      <c r="K24" s="47"/>
       <c r="L24" s="5"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="56">
+      <c r="N24" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="56">
+      <c r="R24" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S24" s="7"/>
-      <c r="T24" s="36">
+      <c r="S24" s="2"/>
+      <c r="T24" s="35">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V24" s="16"/>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="8">
-        <f>SUM(W24:Y24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -4991,712 +4816,906 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="48"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="47"/>
       <c r="L25" s="5"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="56">
+      <c r="N25" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2">
-        <v>13</v>
-      </c>
-      <c r="R25" s="56">
+        <v>7</v>
+      </c>
+      <c r="R25" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S25" s="2"/>
-      <c r="T25" s="36">
+      <c r="T25" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="U25" s="2"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="8"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2">
-        <v>5</v>
-      </c>
-      <c r="G26" s="2"/>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>132</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="48"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="47"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="56">
+      <c r="M26" s="2">
+        <v>2</v>
+      </c>
+      <c r="N26" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="56">
+      <c r="R26" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S26" s="2"/>
-      <c r="T26" s="36">
+      <c r="T26" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="U26" s="2"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="8"/>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
       <c r="C27" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="45"/>
-      <c r="K27" s="48"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="47"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="56">
+      <c r="M27" s="2">
+        <v>3</v>
+      </c>
+      <c r="N27" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2">
-        <v>7</v>
-      </c>
-      <c r="R27" s="56">
+      <c r="Q27" s="2"/>
+      <c r="R27" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S27" s="2"/>
-      <c r="T27" s="36">
+      <c r="T27" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="U27" s="2"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="8"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="48"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="47"/>
       <c r="L28" s="5"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="56">
+      <c r="N28" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="56">
+      <c r="R28" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="36">
+      <c r="T28" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="2"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="8"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
-        <v>3</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="48"/>
+        <v>115</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31">
+        <v>1</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="47"/>
       <c r="L29" s="5"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="56">
+      <c r="N29" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="56">
+      <c r="R29" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="36">
+      <c r="S29" s="7"/>
+      <c r="T29" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="U29" s="2"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="8"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="48"/>
+      <c r="I30" s="2">
+        <v>9</v>
+      </c>
+      <c r="J30" s="44"/>
+      <c r="K30" s="47"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="2">
-        <v>28</v>
-      </c>
-      <c r="N30" s="56">
+      <c r="M30" s="2"/>
+      <c r="N30" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="56">
+      <c r="Q30" s="2">
+        <v>13</v>
+      </c>
+      <c r="R30" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S30" s="2"/>
-      <c r="T30" s="36">
+      <c r="T30" s="35">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="U30" s="2"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="8"/>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="29"/>
+      <c r="C31" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="48"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="47"/>
       <c r="L31" s="5"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="56">
+      <c r="N31" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="56">
+      <c r="R31" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S31" s="2"/>
-      <c r="T31" s="36">
+      <c r="T31" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="2"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="8"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="29"/>
       <c r="C32" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="1">
-        <v>39</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="48"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="44"/>
+      <c r="K32" s="47"/>
       <c r="L32" s="5"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="56">
+      <c r="N32" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="56">
+      <c r="Q32" s="2">
+        <v>7</v>
+      </c>
+      <c r="R32" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S32" s="2"/>
-      <c r="T32" s="36">
+      <c r="T32" s="35">
         <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="U32" s="2"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="8"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="1">
-        <v>11</v>
-      </c>
-      <c r="H33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="48"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="47"/>
       <c r="L33" s="5"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N33" s="55"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="R33" s="55"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="36">
+      <c r="T33" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="U33" s="2"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="8"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="29"/>
       <c r="C34" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="1">
-        <v>50</v>
-      </c>
-      <c r="H34" s="1"/>
+      <c r="G34" s="2">
+        <v>4</v>
+      </c>
+      <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="48"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="47"/>
       <c r="L34" s="5"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N34" s="55"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="R34" s="55"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="36">
+      <c r="T34" s="35">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="U34" s="2"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="8"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="29"/>
       <c r="C35" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="1">
-        <v>5</v>
-      </c>
-      <c r="H35" s="1"/>
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="48"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="47"/>
       <c r="L35" s="5"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N35" s="55"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="R35" s="55"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="36">
+      <c r="T35" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="U35" s="2"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="8"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
       <c r="C36" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="1">
-        <v>17</v>
-      </c>
-      <c r="H36" s="1"/>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="48"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="47"/>
       <c r="L36" s="5"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N36" s="55"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="R36" s="55"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="36">
+      <c r="T36" s="35">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="U36" s="2"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="8"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B37" s="30"/>
-      <c r="C37" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="1">
-        <v>110</v>
-      </c>
-      <c r="H37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="48"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="47"/>
       <c r="L37" s="5"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="56">
+      <c r="N37" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="56">
+      <c r="R37" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S37" s="2"/>
-      <c r="T37" s="36">
+      <c r="T37" s="35">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="U37" s="2"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="8"/>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B38" s="30"/>
-      <c r="C38" s="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="48"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="47"/>
       <c r="L38" s="5"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="56">
+      <c r="N38" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="56">
+      <c r="R38" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S38" s="2"/>
-      <c r="T38" s="36">
+      <c r="T38" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="2"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="8"/>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B39" s="30"/>
-      <c r="C39" s="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="48"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="47"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="56">
+      <c r="M39" s="2">
+        <v>31</v>
+      </c>
+      <c r="N39" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="56">
+      <c r="R39" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S39" s="2"/>
-      <c r="T39" s="36">
+      <c r="T39" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="2"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="8"/>
-    </row>
-    <row r="40" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20">
-        <f t="shared" ref="D40:J40" si="3">SUM(D8:D39)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="20">
-        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="35">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="2"/>
+      <c r="T41" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="76">
+        <v>39</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="35">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="76">
+        <v>11</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="2"/>
+      <c r="T43" s="35">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="76">
+        <v>50</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="2"/>
+      <c r="T44" s="35">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="76">
+        <v>5</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="2"/>
+      <c r="T45" s="35">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="76">
+        <v>19</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="2"/>
+      <c r="T46" s="35">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="29"/>
+      <c r="C47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="76">
+        <v>155</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="2"/>
+      <c r="T47" s="35">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="29"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="2"/>
+      <c r="T48" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="29"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="2"/>
+      <c r="T49" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19">
+        <f>SUM(D8:D49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="19">
+        <f>SUM(E8:E49)</f>
         <v>7</v>
       </c>
-      <c r="F40" s="20">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="G40" s="20">
-        <f t="shared" si="3"/>
-        <v>364</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="J40" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="48"/>
-      <c r="L40" s="47">
-        <f>SUM(L8:L39)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="20">
-        <f>SUM(M8:M39)</f>
-        <v>55</v>
-      </c>
-      <c r="N40" s="49">
-        <f t="shared" ref="N40" si="4">IF(L40=0,0,(M40-L40)/L40)</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20">
-        <f>SUM(P8:P39)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="20">
-        <f>SUM(Q8:Q39)</f>
-        <v>37</v>
-      </c>
-      <c r="R40" s="21">
-        <f t="shared" ref="R40" si="5">IF(P40=0,0,(Q40-P40)/P40)</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="20"/>
-      <c r="T40" s="37">
-        <f>SUM(T8:T39)</f>
-        <v>502</v>
-      </c>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20">
-        <f>SUM(W8:W39)</f>
-        <v>0</v>
-      </c>
-      <c r="X40" s="20">
-        <f>SUM(X8:X39)</f>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="20">
-        <f>SUM(Y8:Y39)</f>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="20">
-        <f>SUM(Z8:Z39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="N41" s="54"/>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="N42" s="54"/>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="N43" s="54"/>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="N44" s="54"/>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="N45" s="54"/>
+      <c r="F50" s="19">
+        <f>SUM(F8:F49)</f>
+        <v>24</v>
+      </c>
+      <c r="G50" s="19">
+        <f>SUM(G8:G49)</f>
+        <v>418</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19">
+        <f>SUM(I8:I49)</f>
+        <v>22</v>
+      </c>
+      <c r="J50" s="45">
+        <f>SUM(J8:J49)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="47"/>
+      <c r="L50" s="46">
+        <f>SUM(L8:L49)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="19">
+        <f>SUM(M8:M49)</f>
+        <v>67</v>
+      </c>
+      <c r="N50" s="48">
+        <f t="shared" ref="N50" si="3">IF(L50=0,0,(M50-L50)/L50)</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19">
+        <f>SUM(P8:P49)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="19">
+        <f>SUM(Q8:Q49)</f>
+        <v>125</v>
+      </c>
+      <c r="R50" s="20">
+        <f t="shared" ref="R50" si="4">IF(P50=0,0,(Q50-P50)/P50)</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="19"/>
+      <c r="T50" s="36">
+        <f>SUM(T8:T49)</f>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N51" s="53"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N52" s="53"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N53" s="53"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N54" s="53"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N55" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B4:Z4"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="B3:T3"/>
+    <mergeCell ref="B4:T4"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="P6:R6"/>
-    <mergeCell ref="W6:Z6"/>
   </mergeCells>
-  <conditionalFormatting sqref="W9">
-    <cfRule type="expression" priority="4">
-      <formula>W9/$Z9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W24">
-    <cfRule type="expression" priority="1">
-      <formula>W24/$Z24</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F31193-8947-4AED-BAC3-9D39E0B06A11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3BEAAB-D5EE-4534-95C5-FFA95D48DB35}">
   <dimension ref="B2:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5722,76 +5741,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
+      <c r="B2" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
     </row>
     <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
+      <c r="B3" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
+      <c r="B4" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -5800,32 +5819,32 @@
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
+      <c r="D6" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
       <c r="H6" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="P6" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
+        <v>111</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="P6" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
       <c r="T6" s="14" t="s">
         <v>10</v>
       </c>
@@ -5833,49 +5852,49 @@
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="43" t="s">
+      <c r="D7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="42" t="s">
         <v>9</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
@@ -5884,8 +5903,8 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="48"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="47"/>
       <c r="L8" s="5"/>
       <c r="M8" s="2"/>
       <c r="N8" s="8"/>
@@ -5897,99 +5916,103 @@
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33">
-        <v>16</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="48"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="47"/>
       <c r="L9" s="5"/>
       <c r="M9" s="2"/>
       <c r="N9" s="16"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>85</v>
+      </c>
       <c r="R9" s="16"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="36">
+      <c r="T9" s="35">
         <f>D9+E9+F9+G9+H9+I9+J9+M9+Q9</f>
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="48"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="47"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2">
+        <v>4</v>
+      </c>
       <c r="N10" s="8"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="8"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="50">
+      <c r="T10" s="49">
         <f t="shared" ref="T10:T24" si="0">D10+E10+F10+G10+H10+I10+J10+M10+Q10</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="53"/>
+        <v>4</v>
+      </c>
+      <c r="U10" s="52"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="B11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="48"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="47"/>
       <c r="L11" s="5"/>
       <c r="M11" s="2"/>
       <c r="N11" s="16"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2">
-        <v>2</v>
-      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" s="16"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="50">
+      <c r="T11" s="49">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="U11" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="52"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="35"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="48"/>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="44"/>
+      <c r="K12" s="47"/>
       <c r="L12" s="5"/>
       <c r="M12" s="2"/>
       <c r="N12" s="17"/>
@@ -5998,16 +6021,16 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="16"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="50">
+      <c r="T12" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="53"/>
+        <v>6</v>
+      </c>
+      <c r="U12" s="52"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6015,39 +6038,37 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="48"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="47"/>
       <c r="L13" s="5"/>
       <c r="M13" s="2"/>
       <c r="N13" s="17"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="50">
+      <c r="T13" s="49">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="U13" s="53"/>
+        <v>3</v>
+      </c>
+      <c r="U13" s="52"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="B14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="48"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="5"/>
       <c r="M14" s="2"/>
       <c r="N14" s="8"/>
@@ -6056,25 +6077,27 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="8"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="50">
+      <c r="T14" s="49">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U14" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="52"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="48"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="47"/>
       <c r="L15" s="5"/>
       <c r="M15" s="2"/>
       <c r="N15" s="8"/>
@@ -6083,27 +6106,27 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="8"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="50">
+      <c r="T15" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="53"/>
+        <v>4</v>
+      </c>
+      <c r="U15" s="52"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="48"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="5"/>
       <c r="M16" s="2"/>
       <c r="N16" s="8"/>
@@ -6112,27 +6135,27 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="8"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="50">
+      <c r="T16" s="49">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U16" s="53"/>
+        <v>2</v>
+      </c>
+      <c r="U16" s="52"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>36</v>
-      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="1"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="48"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="5"/>
       <c r="M17" s="2"/>
       <c r="N17" s="8"/>
@@ -6141,27 +6164,25 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="8"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="50">
+      <c r="T17" s="49">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="U17" s="53"/>
+        <v>1</v>
+      </c>
+      <c r="U17" s="52"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>5</v>
-      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="1"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="48"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="47"/>
       <c r="L18" s="5"/>
       <c r="M18" s="2"/>
       <c r="N18" s="8"/>
@@ -6170,27 +6191,27 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="8"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="50">
+      <c r="T18" s="49">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="U18" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="52"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="48"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="5"/>
       <c r="M19" s="2"/>
       <c r="N19" s="8"/>
@@ -6199,52 +6220,56 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="8"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="50">
+      <c r="T19" s="49">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="U19" s="53"/>
+        <v>1</v>
+      </c>
+      <c r="U19" s="52"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>86</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="1"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="48"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="2"/>
+      <c r="M20" s="2">
+        <v>3</v>
+      </c>
       <c r="N20" s="8"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="8"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="50">
+      <c r="T20" s="49">
         <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="U20" s="53"/>
+        <v>3</v>
+      </c>
+      <c r="U20" s="52"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>12</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="48"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="5"/>
       <c r="M21" s="2"/>
       <c r="N21" s="8"/>
@@ -6253,23 +6278,25 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="8"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="50">
+      <c r="T21" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="53"/>
+        <v>12</v>
+      </c>
+      <c r="U21" s="52"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="34"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="48"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="5"/>
       <c r="M22" s="2"/>
       <c r="N22" s="16"/>
@@ -6278,23 +6305,27 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="16"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="50">
+      <c r="T22" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U22" s="53"/>
+      <c r="U22" s="52"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="35"/>
+      <c r="C23" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="48"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="47"/>
       <c r="L23" s="5"/>
       <c r="M23" s="2"/>
       <c r="N23" s="17"/>
@@ -6303,23 +6334,27 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="16"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="50">
+      <c r="T23" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="53"/>
+        <v>2</v>
+      </c>
+      <c r="U23" s="52"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <v>45</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="48"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="47"/>
       <c r="L24" s="5"/>
       <c r="M24" s="2"/>
       <c r="N24" s="17"/>
@@ -6328,11 +6363,11 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="16"/>
       <c r="S24" s="2"/>
-      <c r="T24" s="50">
+      <c r="T24" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="53"/>
+        <v>45</v>
+      </c>
+      <c r="U24" s="52"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
@@ -6343,8 +6378,8 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="48"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="47"/>
       <c r="L25" s="5"/>
       <c r="M25" s="2"/>
       <c r="N25" s="17"/>
@@ -6353,74 +6388,74 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="8"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="53"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="52"/>
     </row>
     <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20">
+      <c r="B26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19">
         <f>SUM(D8:D25)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <f t="shared" ref="E26:M26" si="1">SUM(E8:E25)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
+        <v>6</v>
+      </c>
+      <c r="G26" s="19">
         <f t="shared" si="1"/>
-        <v>143</v>
-      </c>
-      <c r="H26" s="20">
+        <v>66</v>
+      </c>
+      <c r="H26" s="19">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I26" s="20">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="48"/>
-      <c r="L26" s="47">
+      <c r="K26" s="47"/>
+      <c r="L26" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="49">
+        <v>7</v>
+      </c>
+      <c r="N26" s="48">
         <f>L26-M26</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20">
+        <v>-7</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19">
         <f t="shared" ref="P26:Q26" si="2">SUM(P8:P25)</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="20">
+      <c r="Q26" s="19">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="R26" s="21">
+        <v>88</v>
+      </c>
+      <c r="R26" s="20">
         <f t="shared" ref="R26" si="3">IF(P26=0,0,(Q26-P26)/P26)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="20"/>
-      <c r="T26" s="52">
+      <c r="S26" s="19"/>
+      <c r="T26" s="51">
         <f>SUM(T8:T25)</f>
         <v>168</v>
       </c>
-      <c r="U26" s="53"/>
+      <c r="U26" s="52"/>
     </row>
     <row r="27" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6439,11 +6474,758 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
-  <dimension ref="B2:X20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F31193-8947-4AED-BAC3-9D39E0B06A11}">
+  <dimension ref="B2:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="6"/>
+    <col min="13" max="13" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.28515625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="2.28515625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+    </row>
+    <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="P6" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="T6" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="8"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="8"/>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="16"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="35">
+        <f>D9+E9+F9+G9+H9+I9+J9+M9+Q9</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="49">
+        <f t="shared" ref="T10:T24" si="0">D10+E10+F10+G10+H10+I10+J10+M10+Q10</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="52"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2">
+        <v>2</v>
+      </c>
+      <c r="R11" s="16"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U11" s="52"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="52"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2">
+        <v>6</v>
+      </c>
+      <c r="R13" s="8"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="49">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="U13" s="52"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="44"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U14" s="52"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="52"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="C16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="U16" s="52"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>36</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="49">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="U17" s="52"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
+      <c r="C18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="U18" s="52"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="C19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="49">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="U19" s="52"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
+      <c r="C20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>86</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="49">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="U20" s="52"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="52"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="52"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="52"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="52"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="52"/>
+    </row>
+    <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19">
+        <f>SUM(D8:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
+        <f t="shared" ref="E26:M26" si="1">SUM(E8:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I26" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="47"/>
+      <c r="L26" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="48">
+        <f>L26-M26</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19">
+        <f t="shared" ref="P26:Q26" si="2">SUM(P8:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="19">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="R26" s="20">
+        <f t="shared" ref="R26" si="3">IF(P26=0,0,(Q26-P26)/P26)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="19"/>
+      <c r="T26" s="51">
+        <f>SUM(T8:T25)</f>
+        <v>168</v>
+      </c>
+      <c r="U26" s="52"/>
+    </row>
+    <row r="27" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="B4:U4"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
+  <dimension ref="B2:S20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6465,189 +7247,149 @@
     <col min="17" max="17" width="1.7109375" style="6" customWidth="1"/>
     <col min="18" max="18" width="9.7109375" style="6" customWidth="1"/>
     <col min="19" max="19" width="2.28515625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="6" customWidth="1"/>
-    <col min="21" max="23" width="9.28515625" style="6"/>
-    <col min="24" max="24" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-    </row>
-    <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+    </row>
+    <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="N6" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
+      <c r="D6" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="N6" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
       <c r="R6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="76"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="D7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
-        <v>73</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>68</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
@@ -6663,23 +7405,18 @@
       <c r="O8" s="2"/>
       <c r="P8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="8"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32">
+      <c r="C9" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31">
         <v>1</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="2"/>
@@ -6692,28 +7429,14 @@
       <c r="O9" s="2"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="36">
+      <c r="R9" s="35">
         <f>D9+E9+F9+G9+H9+I9+K9+O9</f>
         <v>1</v>
       </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="8">
-        <f>SUM(U9:W9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
-        <v>80</v>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -6732,16 +7455,11 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="8"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="8"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="35" t="s">
-        <v>60</v>
+      <c r="C11" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
@@ -6773,21 +7491,16 @@
         <v>1</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="36">
+      <c r="R11" s="35">
         <f>D11+E11+F11+G11+H11+I11+K11+O11</f>
         <v>97</v>
       </c>
       <c r="S11" s="2"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="8"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="35" t="s">
-        <v>91</v>
+      <c r="C12" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -6810,21 +7523,16 @@
         <v>1</v>
       </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="36">
+      <c r="R12" s="35">
         <f>D12+E12+F12+G12+H12+I12+K12+O12</f>
         <v>3</v>
       </c>
       <c r="S12" s="2"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="18"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="35" t="s">
-        <v>90</v>
+      <c r="C13" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6842,20 +7550,15 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="36">
+      <c r="R13" s="35">
         <f>D13+E13+F13+G13+H13+I13+K13+O13</f>
         <v>2</v>
       </c>
       <c r="S13" s="2"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="18"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
-        <v>82</v>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
@@ -6874,16 +7577,11 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="8"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="8"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="35" t="s">
-        <v>91</v>
+      <c r="C15" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -6904,21 +7602,16 @@
       <c r="O15" s="2"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="36">
+      <c r="R15" s="35">
         <f>D15+E15+F15+G15+H15+I15+K15+O15</f>
         <v>28</v>
       </c>
       <c r="S15" s="2"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="8"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="35" t="s">
-        <v>92</v>
+      <c r="C16" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
@@ -6936,18 +7629,13 @@
       <c r="O16" s="2"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="36">
+      <c r="R16" s="35">
         <f>D16+E16+F16+G16+H16+I16+K16+O16</f>
         <v>1</v>
       </c>
       <c r="S16" s="2"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="18"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -6964,18 +7652,13 @@
       <c r="O17" s="2"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="36">
+      <c r="R17" s="35">
         <f>D17+E17+F17+G17+H17+I17+K17+O17</f>
         <v>0</v>
       </c>
       <c r="S17" s="2"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="18"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -6994,118 +7677,90 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="8"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="18"/>
-    </row>
-    <row r="19" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20">
+    </row>
+    <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19">
         <f>SUM(D8:D18)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <f t="shared" ref="E19:K19" si="3">SUM(E8:E18)</f>
         <v>3</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="20">
         <f t="shared" ref="L19" si="4">IF(J19=0,0,(K19-J19)/J19)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20">
+      <c r="M19" s="19"/>
+      <c r="N19" s="19">
         <f t="shared" ref="N19:O19" si="5">SUM(N8:N18)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="19">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="20">
         <f t="shared" ref="P19" si="6">IF(N19=0,0,(O19-N19)/N19)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="37">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="36">
         <f>SUM(R8:R18)</f>
         <v>132</v>
       </c>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20">
-        <f t="shared" ref="U19:X19" si="7">SUM(U8:U18)</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="S19" s="19"/>
+    </row>
+    <row r="20" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B3:X3"/>
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="B4:X4"/>
-    <mergeCell ref="U6:X6"/>
+  <mergeCells count="8">
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B4:S4"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <conditionalFormatting sqref="U9">
-    <cfRule type="expression" priority="3">
-      <formula>U9/$X9</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C495513F-275C-41A7-8C33-84086248C486}">
-  <dimension ref="B2:X28"/>
+  <dimension ref="B2:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7127,189 +7782,149 @@
     <col min="17" max="17" width="1.7109375" style="6" customWidth="1"/>
     <col min="18" max="18" width="9.7109375" style="6" customWidth="1"/>
     <col min="19" max="19" width="2.28515625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="6" customWidth="1"/>
-    <col min="21" max="23" width="9.140625" style="6"/>
-    <col min="24" max="24" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-    </row>
-    <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+    </row>
+    <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="N6" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
+      <c r="D6" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="N6" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
       <c r="R6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="76"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="D7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
@@ -7325,21 +7940,16 @@
       <c r="O8" s="2"/>
       <c r="P8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="8"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+        <v>95</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="2">
@@ -7356,28 +7966,14 @@
       <c r="O9" s="2"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="36">
+      <c r="R9" s="35">
         <f>D9+E9+F9+G9+H9+I9+K9+O9</f>
         <v>7</v>
       </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="8">
-        <f>SUM(U9:W9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -7396,16 +7992,11 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="8"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="8"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -7425,21 +8016,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="36">
+      <c r="R11" s="35">
         <f>D11+E11+F11+G11+H11+I11+K11+O11</f>
         <v>8</v>
       </c>
       <c r="S11" s="2"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="8"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -7457,22 +8043,17 @@
       <c r="O12" s="2"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="36">
+      <c r="R12" s="35">
         <f>D12+E12+F12+G12+H12+I12+K12+O12</f>
         <v>15</v>
       </c>
       <c r="S12" s="2"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="18"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="35"/>
+        <v>98</v>
+      </c>
+      <c r="C13" s="34"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -7487,21 +8068,16 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="36">
+      <c r="R13" s="35">
         <f t="shared" ref="R13:R26" si="1">D13+E13+F13+G13+H13+I13+K13+O13</f>
         <v>0</v>
       </c>
       <c r="S13" s="2"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="18"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7519,21 +8095,16 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="36">
+      <c r="R14" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S14" s="2"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="8"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -7551,21 +8122,16 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="36">
+      <c r="R15" s="35">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="S15" s="2"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="8"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
@@ -7583,21 +8149,16 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="36">
+      <c r="R16" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S16" s="2"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="8"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -7617,21 +8178,16 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="36">
+      <c r="R17" s="35">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="S17" s="2"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="8"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
       <c r="C18" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -7649,20 +8205,15 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="36">
+      <c r="R18" s="35">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="S18" s="2"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="8"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -7679,21 +8230,16 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="36">
+      <c r="R19" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S19" s="2"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="8"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
@@ -7711,20 +8257,15 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="36">
+      <c r="R20" s="35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S20" s="2"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="8"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -7741,21 +8282,16 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="36">
+      <c r="R21" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S21" s="2"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="8"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="29"/>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -7773,21 +8309,16 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="36">
+      <c r="R22" s="35">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="S22" s="2"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="8"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
       <c r="C23" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -7805,21 +8336,16 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="36">
+      <c r="R23" s="35">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="S23" s="2"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="8"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -7837,21 +8363,16 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="36">
+      <c r="R24" s="35">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="S24" s="2"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="8"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="29"/>
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -7869,21 +8390,16 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="36">
+      <c r="R25" s="35">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="S25" s="2"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="8"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="29"/>
       <c r="C26" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -7901,113 +8417,85 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="36">
+      <c r="R26" s="35">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S26" s="2"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="8"/>
-    </row>
-    <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20">
+    </row>
+    <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19">
         <f t="shared" ref="D27:K27" si="2">SUM(D8:D26)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="19">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="19">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="19">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="20">
         <f t="shared" ref="L27" si="3">IF(J27=0,0,(K27-J27)/J27)</f>
         <v>0.1</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20">
+      <c r="M27" s="19"/>
+      <c r="N27" s="19">
         <f>SUM(N8:N26)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="19">
         <f>SUM(O8:O26)</f>
         <v>27</v>
       </c>
-      <c r="P27" s="21">
+      <c r="P27" s="20">
         <f t="shared" ref="P27" si="4">IF(N27=0,0,(O27-N27)/N27)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="37">
+      <c r="Q27" s="19"/>
+      <c r="R27" s="36">
         <f>SUM(R8:R26)</f>
         <v>186</v>
       </c>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20">
-        <f>SUM(U8:U26)</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="20">
-        <f>SUM(V8:V26)</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="20">
-        <f>SUM(W8:W26)</f>
-        <v>0</v>
-      </c>
-      <c r="X27" s="20">
-        <f>SUM(X8:X26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="S27" s="19"/>
+    </row>
+    <row r="28" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="B3:X3"/>
-    <mergeCell ref="B4:X4"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B4:S4"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U6:X6"/>
   </mergeCells>
-  <conditionalFormatting sqref="U9">
-    <cfRule type="expression" priority="1">
-      <formula>U9/$X9</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>